--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="H2">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="I2">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="J2">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="N2">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="O2">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="P2">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="Q2">
-        <v>285.968832035769</v>
+        <v>1080.276368883364</v>
       </c>
       <c r="R2">
-        <v>2573.719488321921</v>
+        <v>9722.487319950274</v>
       </c>
       <c r="S2">
-        <v>0.1649250674391832</v>
+        <v>0.2853525418936778</v>
       </c>
       <c r="T2">
-        <v>0.1649250674391832</v>
+        <v>0.2853525418936778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="H3">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="I3">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="J3">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.974297</v>
       </c>
       <c r="O3">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="P3">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="Q3">
-        <v>118.229406504687</v>
+        <v>229.7913077189086</v>
       </c>
       <c r="R3">
-        <v>1064.064658542183</v>
+        <v>2068.121769470178</v>
       </c>
       <c r="S3">
-        <v>0.06818572745242799</v>
+        <v>0.06069885045290901</v>
       </c>
       <c r="T3">
-        <v>0.06818572745242803</v>
+        <v>0.06069885045290901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="H4">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="I4">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="J4">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="N4">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="O4">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="P4">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="Q4">
-        <v>298.982800124631</v>
+        <v>711.1688171889273</v>
       </c>
       <c r="R4">
-        <v>2690.845201121679</v>
+        <v>6400.519354700346</v>
       </c>
       <c r="S4">
-        <v>0.1724305342043112</v>
+        <v>0.187853622967005</v>
       </c>
       <c r="T4">
-        <v>0.1724305342043112</v>
+        <v>0.187853622967005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="H5">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="I5">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="J5">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="N5">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="O5">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="P5">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="Q5">
-        <v>0.985471609446</v>
+        <v>1.056155152919333</v>
       </c>
       <c r="R5">
-        <v>8.869244485013999</v>
+        <v>9.505396376274</v>
       </c>
       <c r="S5">
-        <v>0.000568345055264459</v>
+        <v>0.0002789809776466349</v>
       </c>
       <c r="T5">
-        <v>0.0005683450552644591</v>
+        <v>0.000278980977646635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.974297</v>
       </c>
       <c r="I6">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="J6">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="N6">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="O6">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="P6">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="Q6">
-        <v>118.229406504687</v>
+        <v>229.7913077189086</v>
       </c>
       <c r="R6">
-        <v>1064.064658542183</v>
+        <v>2068.121769470178</v>
       </c>
       <c r="S6">
-        <v>0.06818572745242799</v>
+        <v>0.06069885045290901</v>
       </c>
       <c r="T6">
-        <v>0.06818572745242803</v>
+        <v>0.06069885045290901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.974297</v>
       </c>
       <c r="I7">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="J7">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>20.974297</v>
       </c>
       <c r="O7">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="P7">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="Q7">
         <v>48.88012607157877</v>
@@ -880,10 +880,10 @@
         <v>439.921134644209</v>
       </c>
       <c r="S7">
-        <v>0.02819033819665551</v>
+        <v>0.01291157394938293</v>
       </c>
       <c r="T7">
-        <v>0.02819033819665553</v>
+        <v>0.01291157394938294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>20.974297</v>
       </c>
       <c r="I8">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="J8">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="N8">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="O8">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="P8">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="Q8">
-        <v>123.6098310511797</v>
+        <v>151.2764855531125</v>
       </c>
       <c r="R8">
-        <v>1112.488479460617</v>
+        <v>1361.488369978013</v>
       </c>
       <c r="S8">
-        <v>0.07128874701880768</v>
+        <v>0.03995933904019666</v>
       </c>
       <c r="T8">
-        <v>0.0712887470188077</v>
+        <v>0.03995933904019666</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>20.974297</v>
       </c>
       <c r="I9">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="J9">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="N9">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="O9">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="P9">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="Q9">
-        <v>0.4074280497024444</v>
+        <v>0.2246603561218889</v>
       </c>
       <c r="R9">
-        <v>3.666852447321999</v>
+        <v>2.021943205097</v>
       </c>
       <c r="S9">
-        <v>0.000234973504264219</v>
+        <v>5.934352127723109E-05</v>
       </c>
       <c r="T9">
-        <v>0.0002349735042642191</v>
+        <v>5.934352127723111E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="H10">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="I10">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="J10">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="N10">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="O10">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="P10">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="Q10">
-        <v>298.982800124631</v>
+        <v>711.1688171889273</v>
       </c>
       <c r="R10">
-        <v>2690.845201121679</v>
+        <v>6400.519354700346</v>
       </c>
       <c r="S10">
-        <v>0.1724305342043112</v>
+        <v>0.187853622967005</v>
       </c>
       <c r="T10">
-        <v>0.1724305342043112</v>
+        <v>0.187853622967005</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="H11">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="I11">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="J11">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,22 +1116,22 @@
         <v>20.974297</v>
       </c>
       <c r="O11">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="P11">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="Q11">
-        <v>123.6098310511797</v>
+        <v>151.2764855531125</v>
       </c>
       <c r="R11">
-        <v>1112.488479460617</v>
+        <v>1361.488369978013</v>
       </c>
       <c r="S11">
-        <v>0.07128874701880768</v>
+        <v>0.03995933904019666</v>
       </c>
       <c r="T11">
-        <v>0.0712887470188077</v>
+        <v>0.03995933904019666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="H12">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="I12">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="J12">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="N12">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="O12">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="P12">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="Q12">
-        <v>312.589012354969</v>
+        <v>468.1774970831601</v>
       </c>
       <c r="R12">
-        <v>2813.301111194721</v>
+        <v>4213.59747374844</v>
       </c>
       <c r="S12">
-        <v>0.1802775623356834</v>
+        <v>0.12366801931268</v>
       </c>
       <c r="T12">
-        <v>0.1802775623356834</v>
+        <v>0.12366801931268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="H13">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="I13">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="J13">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1234,28 +1234,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="N13">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="O13">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="P13">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="Q13">
-        <v>1.030318790820667</v>
+        <v>0.6952893097587778</v>
       </c>
       <c r="R13">
-        <v>9.272869117385998</v>
+        <v>6.257603787829</v>
       </c>
       <c r="S13">
-        <v>0.0005942094977633849</v>
+        <v>0.0001836590872539851</v>
       </c>
       <c r="T13">
-        <v>0.000594209497763385</v>
+        <v>0.0001836590872539851</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="H14">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="I14">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="J14">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.910613</v>
+        <v>32.867558</v>
       </c>
       <c r="N14">
-        <v>50.731839</v>
+        <v>98.60267399999999</v>
       </c>
       <c r="O14">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="P14">
-        <v>0.4061096741511869</v>
+        <v>0.5341839962912384</v>
       </c>
       <c r="Q14">
-        <v>0.985471609446</v>
+        <v>1.056155152919333</v>
       </c>
       <c r="R14">
-        <v>8.869244485013999</v>
+        <v>9.505396376274</v>
       </c>
       <c r="S14">
-        <v>0.000568345055264459</v>
+        <v>0.0002789809776466349</v>
       </c>
       <c r="T14">
-        <v>0.0005683450552644591</v>
+        <v>0.000278980977646635</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="H15">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="I15">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="J15">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,22 +1364,22 @@
         <v>20.974297</v>
       </c>
       <c r="O15">
-        <v>0.1678997861721554</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="P15">
-        <v>0.1678997861721555</v>
+        <v>0.1136291069637658</v>
       </c>
       <c r="Q15">
-        <v>0.4074280497024444</v>
+        <v>0.2246603561218889</v>
       </c>
       <c r="R15">
-        <v>3.666852447321999</v>
+        <v>2.021943205097</v>
       </c>
       <c r="S15">
-        <v>0.000234973504264219</v>
+        <v>5.934352127723109E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002349735042642191</v>
+        <v>5.934352127723111E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="H16">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="I16">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="J16">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.680187</v>
+        <v>21.63740966666667</v>
       </c>
       <c r="N16">
-        <v>53.040561</v>
+        <v>64.912229</v>
       </c>
       <c r="O16">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="P16">
-        <v>0.4245910530565657</v>
+        <v>0.3516646404071356</v>
       </c>
       <c r="Q16">
-        <v>1.030318790820667</v>
+        <v>0.6952893097587778</v>
       </c>
       <c r="R16">
-        <v>9.272869117385998</v>
+        <v>6.257603787829</v>
       </c>
       <c r="S16">
-        <v>0.0005942094977633849</v>
+        <v>0.0001836590872539851</v>
       </c>
       <c r="T16">
-        <v>0.000594209497763385</v>
+        <v>0.0001836590872539851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="H17">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="I17">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="J17">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1482,28 +1482,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.05827533333333332</v>
+        <v>0.03213366666666666</v>
       </c>
       <c r="N17">
-        <v>0.174826</v>
+        <v>0.096401</v>
       </c>
       <c r="O17">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602863</v>
       </c>
       <c r="P17">
-        <v>0.001399486620091879</v>
+        <v>0.0005222563378602864</v>
       </c>
       <c r="Q17">
-        <v>0.00339601447511111</v>
+        <v>0.001032572533444444</v>
       </c>
       <c r="R17">
-        <v>0.03056413027599999</v>
+        <v>0.009293152801</v>
       </c>
       <c r="S17">
-        <v>1.958562799816192E-06</v>
+        <v>2.727516824352375E-07</v>
       </c>
       <c r="T17">
-        <v>1.958562799816193E-06</v>
+        <v>2.727516824352376E-07</v>
       </c>
     </row>
   </sheetData>
